--- a/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.8-16.9.xlsx
+++ b/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.8-16.9.xlsx
@@ -17,16 +17,11 @@
     <sheet name="Legend" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="164">
   <si>
     <t>Bangladesh</t>
   </si>
@@ -544,9 +539,6 @@
   </si>
   <si>
     <t>According to the LARR Act, 2013 an Expert Group must appraise the Social Impact Assessment and report on whether “land proposed to be acquired is the absolute bare-minimum extent needed for the project and whether there are no other less displacing options available.” (Sec. 7(5), LARR Act). Section 8(2) requires the appropriate Government to examine the report of the Collector on Expert Group on Social Impact Assessment and, after consider the reports, recommend such area for acquisition which would ensure minimum displace of people, minimum disturbance and minimum adverse impact on the individuals affected (Sec. 8(2), LARR Act). Section 39 provides that the Collector must "as far, as possible, not displace any family which has already been displaced by the appropriated Government, and, if so, shall pay additional compensation..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pursuant to article 62(2) of the 2011 Law on State-owned Property, "Compulsory acquisition of the parcel of land or other real estate in connection with withdrawal of the parcel of land for the state needs in the presence of different (alternative) way of satisfaction of the state needs is not allowed." The score on this indicator is “partial” because, while the government is only allowed to expropriate land if no other available alternatives exist, it is unclear from this provision whether the government is necessarily obligated to avoid or minimize involuntary resettlement in every case. </t>
   </si>
   <si>
     <t xml:space="preserve">The government can only require indigenous communities to relocate from their lands where relocation "is considered necessary as an exceptional measure" (Sec. 7(c), Indigenous Peoples Rights Act, 1997). (Section 7 (c) Indigenous People’s Right Act). The answer is "partial" because the government is only obliged to minimize or avoid forced evictions in cases involving indigenous land. </t>
@@ -692,7 +684,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +709,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +744,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2362">
+  <cellStyleXfs count="2363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3109,8 +3107,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3167,8 +3166,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="2362" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="2362" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2362">
+  <cellStyles count="2363">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -5529,6 +5532,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="2361" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2248"/>
+    <cellStyle name="Normal 3" xfId="2362"/>
     <cellStyle name="Título 2" xfId="2213" builtinId="17"/>
     <cellStyle name="Título 2 2" xfId="2249"/>
   </cellStyles>
@@ -5588,7 +5592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5623,7 +5627,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5834,8 +5838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D265" sqref="D265:E265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5867,7 +5871,7 @@
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>50</v>
@@ -5879,7 +5883,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -5887,7 +5891,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
@@ -5899,12 +5903,12 @@
         <v>40</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>51</v>
@@ -5916,12 +5920,12 @@
         <v>40</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>0</v>
@@ -5933,12 +5937,12 @@
         <v>40</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>52</v>
@@ -5950,12 +5954,12 @@
         <v>40</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>53</v>
@@ -5967,12 +5971,12 @@
         <v>40</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>54</v>
@@ -5984,12 +5988,12 @@
         <v>40</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>7</v>
@@ -6001,12 +6005,12 @@
         <v>40</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
@@ -6018,12 +6022,12 @@
         <v>40</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -6035,12 +6039,12 @@
         <v>40</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>10</v>
@@ -6057,7 +6061,7 @@
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>55</v>
@@ -6069,12 +6073,12 @@
         <v>40</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>56</v>
@@ -6086,12 +6090,12 @@
         <v>40</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>11</v>
@@ -6103,12 +6107,12 @@
         <v>40</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>34</v>
@@ -6120,12 +6124,12 @@
         <v>40</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>33</v>
@@ -6137,12 +6141,12 @@
         <v>40</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>13</v>
@@ -6159,7 +6163,7 @@
     </row>
     <row r="19" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>12</v>
@@ -6171,12 +6175,12 @@
         <v>40</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>14</v>
@@ -6188,12 +6192,12 @@
         <v>40</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>32</v>
@@ -6205,12 +6209,12 @@
         <v>40</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>57</v>
@@ -6222,12 +6226,12 @@
         <v>38</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>58</v>
@@ -6239,12 +6243,12 @@
         <v>40</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>15</v>
@@ -6256,12 +6260,12 @@
         <v>40</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>59</v>
@@ -6273,12 +6277,12 @@
         <v>40</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>16</v>
@@ -6290,12 +6294,12 @@
         <v>40</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>17</v>
@@ -6307,12 +6311,12 @@
         <v>40</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>60</v>
@@ -6324,12 +6328,12 @@
         <v>40</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>61</v>
@@ -6341,12 +6345,12 @@
         <v>40</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>18</v>
@@ -6358,12 +6362,12 @@
         <v>40</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>62</v>
@@ -6375,12 +6379,12 @@
         <v>40</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>19</v>
@@ -6392,12 +6396,12 @@
         <v>40</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>63</v>
@@ -6409,12 +6413,12 @@
         <v>40</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>64</v>
@@ -6426,12 +6430,12 @@
         <v>40</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>65</v>
@@ -6443,12 +6447,12 @@
         <v>40</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>20</v>
@@ -6465,7 +6469,7 @@
     </row>
     <row r="37" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>21</v>
@@ -6477,12 +6481,12 @@
         <v>40</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>22</v>
@@ -6494,12 +6498,12 @@
         <v>40</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>31</v>
@@ -6511,12 +6515,12 @@
         <v>40</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>66</v>
@@ -6528,12 +6532,12 @@
         <v>40</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>23</v>
@@ -6545,12 +6549,12 @@
         <v>40</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>68</v>
@@ -6562,12 +6566,12 @@
         <v>40</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>24</v>
@@ -6579,12 +6583,12 @@
         <v>40</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>25</v>
@@ -6596,12 +6600,12 @@
         <v>40</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>26</v>
@@ -6613,12 +6617,12 @@
         <v>40</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>67</v>
@@ -6630,12 +6634,12 @@
         <v>40</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>27</v>
@@ -6647,12 +6651,12 @@
         <v>40</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>28</v>
@@ -6669,7 +6673,7 @@
     </row>
     <row r="49" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>29</v>
@@ -6686,7 +6690,7 @@
     </row>
     <row r="50" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>30</v>
@@ -6703,7 +6707,7 @@
     </row>
     <row r="51" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>50</v>
@@ -6720,7 +6724,7 @@
     </row>
     <row r="52" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>6</v>
@@ -6737,7 +6741,7 @@
     </row>
     <row r="53" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>51</v>
@@ -6754,7 +6758,7 @@
     </row>
     <row r="54" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>0</v>
@@ -6771,7 +6775,7 @@
     </row>
     <row r="55" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>52</v>
@@ -6788,7 +6792,7 @@
     </row>
     <row r="56" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>53</v>
@@ -6805,7 +6809,7 @@
     </row>
     <row r="57" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>54</v>
@@ -6822,7 +6826,7 @@
     </row>
     <row r="58" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>7</v>
@@ -6839,7 +6843,7 @@
     </row>
     <row r="59" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>8</v>
@@ -6856,7 +6860,7 @@
     </row>
     <row r="60" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>9</v>
@@ -6873,7 +6877,7 @@
     </row>
     <row r="61" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>10</v>
@@ -6890,7 +6894,7 @@
     </row>
     <row r="62" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>55</v>
@@ -6907,7 +6911,7 @@
     </row>
     <row r="63" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>56</v>
@@ -6924,7 +6928,7 @@
     </row>
     <row r="64" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>11</v>
@@ -6941,7 +6945,7 @@
     </row>
     <row r="65" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>34</v>
@@ -6958,7 +6962,7 @@
     </row>
     <row r="66" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -6975,7 +6979,7 @@
     </row>
     <row r="67" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>13</v>
@@ -6992,7 +6996,7 @@
     </row>
     <row r="68" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>12</v>
@@ -7009,7 +7013,7 @@
     </row>
     <row r="69" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>14</v>
@@ -7026,7 +7030,7 @@
     </row>
     <row r="70" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>32</v>
@@ -7043,7 +7047,7 @@
     </row>
     <row r="71" spans="1:5" s="13" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>57</v>
@@ -7055,12 +7059,12 @@
         <v>38</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>58</v>
@@ -7077,7 +7081,7 @@
     </row>
     <row r="73" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>15</v>
@@ -7094,7 +7098,7 @@
     </row>
     <row r="74" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>59</v>
@@ -7111,7 +7115,7 @@
     </row>
     <row r="75" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>16</v>
@@ -7128,7 +7132,7 @@
     </row>
     <row r="76" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>17</v>
@@ -7145,7 +7149,7 @@
     </row>
     <row r="77" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>60</v>
@@ -7162,7 +7166,7 @@
     </row>
     <row r="78" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>61</v>
@@ -7179,7 +7183,7 @@
     </row>
     <row r="79" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>18</v>
@@ -7196,7 +7200,7 @@
     </row>
     <row r="80" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>62</v>
@@ -7208,12 +7212,12 @@
         <v>39</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>19</v>
@@ -7230,7 +7234,7 @@
     </row>
     <row r="82" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>63</v>
@@ -7247,7 +7251,7 @@
     </row>
     <row r="83" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>64</v>
@@ -7264,7 +7268,7 @@
     </row>
     <row r="84" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>65</v>
@@ -7281,7 +7285,7 @@
     </row>
     <row r="85" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>20</v>
@@ -7298,7 +7302,7 @@
     </row>
     <row r="86" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>21</v>
@@ -7315,7 +7319,7 @@
     </row>
     <row r="87" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>22</v>
@@ -7332,7 +7336,7 @@
     </row>
     <row r="88" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>31</v>
@@ -7349,7 +7353,7 @@
     </row>
     <row r="89" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>66</v>
@@ -7366,7 +7370,7 @@
     </row>
     <row r="90" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>23</v>
@@ -7383,7 +7387,7 @@
     </row>
     <row r="91" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>68</v>
@@ -7400,7 +7404,7 @@
     </row>
     <row r="92" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>24</v>
@@ -7417,7 +7421,7 @@
     </row>
     <row r="93" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>25</v>
@@ -7434,7 +7438,7 @@
     </row>
     <row r="94" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>26</v>
@@ -7451,7 +7455,7 @@
     </row>
     <row r="95" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>67</v>
@@ -7468,7 +7472,7 @@
     </row>
     <row r="96" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>27</v>
@@ -7485,7 +7489,7 @@
     </row>
     <row r="97" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>28</v>
@@ -7502,7 +7506,7 @@
     </row>
     <row r="98" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>29</v>
@@ -7519,7 +7523,7 @@
     </row>
     <row r="99" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>30</v>
@@ -7536,7 +7540,7 @@
     </row>
     <row r="100" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>50</v>
@@ -7553,7 +7557,7 @@
     </row>
     <row r="101" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>6</v>
@@ -7570,7 +7574,7 @@
     </row>
     <row r="102" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>51</v>
@@ -7587,7 +7591,7 @@
     </row>
     <row r="103" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>0</v>
@@ -7604,7 +7608,7 @@
     </row>
     <row r="104" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>52</v>
@@ -7621,7 +7625,7 @@
     </row>
     <row r="105" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>53</v>
@@ -7638,7 +7642,7 @@
     </row>
     <row r="106" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>54</v>
@@ -7655,7 +7659,7 @@
     </row>
     <row r="107" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>7</v>
@@ -7672,7 +7676,7 @@
     </row>
     <row r="108" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>8</v>
@@ -7689,7 +7693,7 @@
     </row>
     <row r="109" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>9</v>
@@ -7706,7 +7710,7 @@
     </row>
     <row r="110" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>10</v>
@@ -7723,7 +7727,7 @@
     </row>
     <row r="111" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>55</v>
@@ -7740,7 +7744,7 @@
     </row>
     <row r="112" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>56</v>
@@ -7757,7 +7761,7 @@
     </row>
     <row r="113" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>11</v>
@@ -7774,7 +7778,7 @@
     </row>
     <row r="114" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>34</v>
@@ -7791,7 +7795,7 @@
     </row>
     <row r="115" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>33</v>
@@ -7808,7 +7812,7 @@
     </row>
     <row r="116" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>13</v>
@@ -7825,7 +7829,7 @@
     </row>
     <row r="117" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>12</v>
@@ -7842,7 +7846,7 @@
     </row>
     <row r="118" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>14</v>
@@ -7859,7 +7863,7 @@
     </row>
     <row r="119" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>32</v>
@@ -7876,7 +7880,7 @@
     </row>
     <row r="120" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>57</v>
@@ -7888,12 +7892,12 @@
         <v>38</v>
       </c>
       <c r="E120" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>58</v>
@@ -7910,7 +7914,7 @@
     </row>
     <row r="122" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>15</v>
@@ -7927,7 +7931,7 @@
     </row>
     <row r="123" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>59</v>
@@ -7944,7 +7948,7 @@
     </row>
     <row r="124" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>16</v>
@@ -7961,7 +7965,7 @@
     </row>
     <row r="125" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>17</v>
@@ -7978,7 +7982,7 @@
     </row>
     <row r="126" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>60</v>
@@ -7995,7 +7999,7 @@
     </row>
     <row r="127" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>61</v>
@@ -8012,7 +8016,7 @@
     </row>
     <row r="128" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>18</v>
@@ -8029,7 +8033,7 @@
     </row>
     <row r="129" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>62</v>
@@ -8041,12 +8045,12 @@
         <v>39</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>19</v>
@@ -8063,7 +8067,7 @@
     </row>
     <row r="131" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>63</v>
@@ -8080,7 +8084,7 @@
     </row>
     <row r="132" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>64</v>
@@ -8097,7 +8101,7 @@
     </row>
     <row r="133" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>65</v>
@@ -8114,7 +8118,7 @@
     </row>
     <row r="134" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>20</v>
@@ -8131,7 +8135,7 @@
     </row>
     <row r="135" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B135" s="14" t="s">
         <v>21</v>
@@ -8148,7 +8152,7 @@
     </row>
     <row r="136" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B136" s="14" t="s">
         <v>22</v>
@@ -8165,7 +8169,7 @@
     </row>
     <row r="137" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B137" s="14" t="s">
         <v>31</v>
@@ -8182,7 +8186,7 @@
     </row>
     <row r="138" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B138" s="14" t="s">
         <v>66</v>
@@ -8199,7 +8203,7 @@
     </row>
     <row r="139" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B139" s="14" t="s">
         <v>23</v>
@@ -8216,7 +8220,7 @@
     </row>
     <row r="140" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B140" s="14" t="s">
         <v>68</v>
@@ -8233,7 +8237,7 @@
     </row>
     <row r="141" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B141" s="14" t="s">
         <v>24</v>
@@ -8250,7 +8254,7 @@
     </row>
     <row r="142" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B142" s="14" t="s">
         <v>25</v>
@@ -8267,7 +8271,7 @@
     </row>
     <row r="143" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B143" s="14" t="s">
         <v>26</v>
@@ -8284,7 +8288,7 @@
     </row>
     <row r="144" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B144" s="14" t="s">
         <v>67</v>
@@ -8301,7 +8305,7 @@
     </row>
     <row r="145" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B145" s="14" t="s">
         <v>27</v>
@@ -8318,7 +8322,7 @@
     </row>
     <row r="146" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>28</v>
@@ -8335,7 +8339,7 @@
     </row>
     <row r="147" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B147" s="14" t="s">
         <v>29</v>
@@ -8352,7 +8356,7 @@
     </row>
     <row r="148" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B148" s="14" t="s">
         <v>30</v>
@@ -8721,7 +8725,7 @@
         <v>38</v>
       </c>
       <c r="E169" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -9554,7 +9558,7 @@
         <v>38</v>
       </c>
       <c r="E218" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -10349,11 +10353,11 @@
       <c r="C265" s="17">
         <v>2017</v>
       </c>
-      <c r="D265" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E265" s="16" t="s">
-        <v>151</v>
+      <c r="D265" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E265" s="32" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="266" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -10625,7 +10629,7 @@
         <v>39</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="282" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -10744,7 +10748,7 @@
         <v>39</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -13427,11 +13431,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.8-16.9.xlsx
+++ b/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.8-16.9.xlsx
@@ -251,9 +251,6 @@
     <t xml:space="preserve">Section 16(1)(e) of the Acquisition of Property Act CAP 32-10 provides that compensation should include "the reasonable expenses, if any, incidental to any change of residence or place of business of any person interested which is necessary in consequence of the acquisition." However, since customary landholders without registered tenure rights are not entitled compensation and thus not all landholders are entitled to relocation allowance, the answer is "partial". </t>
   </si>
   <si>
-    <t>The laws asssessed do not provide displaced persons with the right to relocation allowance.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Article 47 of the Law on Land Administration states "resettlement subsidies for expropriated cultivated land shall be calculated according to the agricultural population needing to be resettled. The agricultural population needing to be resettled shall be calculated by dividing the area of expropriated cultivated land by the average area of the original cultivated land per person of the unit the land of which is expropriated. The standard resettlement subsidies to be divided among members of the agricultural population needing resettlement shall be four to six times the average annual output value of the expropriated cultivated land calculated on the basis of three years preceding such expropriation. However, the maximum resettlement subsidies for each hectare of the expropriated cultivated land shall not exceed fifteen times its average annual output value calculated on the basis of three years preceding such expropriation." Articles 31 of the Urban Housing Demolition and Relocation Management Regulations, the property owner is entitled to moving expenses and transitional resettlement subsidy and that resettlement subsidies can be in the form of either cash subsidy or provision of a transitional home. </t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>Article 13 of the Law on Land Expropriation, 2000 provides "A land plot of the same value shall be distributed to those whose house- land has been expropriated, or if requested so by the owner, another residential house owned by Emirates shall be put at his disposal, in accordance with the specified criteria." Article 14 of the Law states "Instead of paying the price for an expropriated land to the owner of such land, another piece of land, equivalent to such land, may be distributed to the owner upon his agreement. If such new land has a grade higher than that expropriated, the owner shall pay the difference to the Emirates and vice versa." The indicator score is "partial" because the law does not provide alternative land to all displaced populations. The law only provides alternative land to landholders with registered tenure rights that are eligible for compensation.</t>
   </si>
   <si>
-    <t>The laws asssessed do not provide displaced persons with the right to alternative land.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Article 11(1)(a) and article 19 of the 2000 Housing and Town Planning Act (Chapter 182 of the Laws of Belize) provide that the Housing Minister may "provide housing accommodation for persons displaced", but this only triggers a partial score because it does not necessarily oblige the Housing Minister to provide such accommodation; it only provides the Minister discretion to do so. </t>
   </si>
   <si>
@@ -387,9 +381,6 @@
   </si>
   <si>
     <t xml:space="preserve">Provision 2 of the Second Schedule of the LARR Act 2013 provides that, for irrigation projects, "as far as possible and in lieu of compensation to be paid for land acquired, each affected family owning agricultural land in the affected area and whose land has been acquired or lost, or who has, as a consequence of the acquisition or loss of land, been reduced to the status of a marginal farmer or landless, shall be alotted, in the name of each person included in the records of rights with regard to the affected family, a minimum of one are of land in the command area of the project..." Furthermore, section 41(7) of the LARR Act 2013 provides that "the affected familie of the Scheduled Tribes shall be resettled preferably in the same Scheduled Area in a compact block so that they can retain their ethnic, linguistic and cultural identity." Since the right to suitable productive land is limited to irrigation projects and projects involving land in Scheduled Areas, the answer for this indicator is "partial." </t>
-  </si>
-  <si>
-    <t>The laws asssessed do not provide displaced persons with the right to productive alternative land or suitable alternative housing.</t>
   </si>
   <si>
     <t>Section 7(c) of the indigneous People's Rights Act, 1997 provides indigenous communities (ICCs/Ips) "the right to stay in the territory and not to be removed therefrom. No ICCs/Ips will be relocated without their free and prior informed consent, nor through any means other than eminent domain. Where relocation is considered necessary as an exception measure...they shall be guaranteed the right to return to their ancestrail domains, as soon as the grounds for relocation cease to exist. When such return is not possible...ICCs/IPs shall be provided in all possible cases with lands of quality and legal status at least equal to that of the land previous occupied by them, suitable to provide their present needs and future development."</t>
@@ -582,6 +573,15 @@
   </si>
   <si>
     <t>Article 18 of the Decree on Compensation and Resettlement Management in Development Projects (2016) provides that affected populations have a right to "receive the information on the development projects…attend consultations at different levels, make comments to the plan of compensation, resettlement and rehabilitation...[and] make a written proposal to the relocated committee for compensation and resettlement."</t>
+  </si>
+  <si>
+    <t>The laws assessed do not provide displaced persons with the right to relocation allowance.</t>
+  </si>
+  <si>
+    <t>The laws assessed do not provide displaced persons with the right to alternative land.</t>
+  </si>
+  <si>
+    <t>The laws assessed do not provide displaced persons with the right to productive alternative land or suitable alternative housing.</t>
   </si>
 </sst>
 </file>
@@ -5838,8 +5838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D265" sqref="D265:E265"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E186" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>50</v>
@@ -5883,7 +5883,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
@@ -5903,12 +5903,12 @@
         <v>40</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>51</v>
@@ -5920,12 +5920,12 @@
         <v>40</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>0</v>
@@ -5937,12 +5937,12 @@
         <v>40</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>52</v>
@@ -5954,12 +5954,12 @@
         <v>40</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>53</v>
@@ -5971,12 +5971,12 @@
         <v>40</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>54</v>
@@ -5988,12 +5988,12 @@
         <v>40</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>7</v>
@@ -6005,12 +6005,12 @@
         <v>40</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
@@ -6022,12 +6022,12 @@
         <v>40</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -6039,12 +6039,12 @@
         <v>40</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>10</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>55</v>
@@ -6073,12 +6073,12 @@
         <v>40</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>56</v>
@@ -6090,12 +6090,12 @@
         <v>40</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>11</v>
@@ -6107,12 +6107,12 @@
         <v>40</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>34</v>
@@ -6124,12 +6124,12 @@
         <v>40</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>33</v>
@@ -6141,12 +6141,12 @@
         <v>40</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>13</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="19" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>12</v>
@@ -6175,12 +6175,12 @@
         <v>40</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>14</v>
@@ -6192,12 +6192,12 @@
         <v>40</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>32</v>
@@ -6209,12 +6209,12 @@
         <v>40</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>57</v>
@@ -6226,12 +6226,12 @@
         <v>38</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>58</v>
@@ -6243,12 +6243,12 @@
         <v>40</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>15</v>
@@ -6260,12 +6260,12 @@
         <v>40</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>59</v>
@@ -6277,12 +6277,12 @@
         <v>40</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>16</v>
@@ -6294,12 +6294,12 @@
         <v>40</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>17</v>
@@ -6311,12 +6311,12 @@
         <v>40</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>60</v>
@@ -6328,12 +6328,12 @@
         <v>40</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>61</v>
@@ -6345,12 +6345,12 @@
         <v>40</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>18</v>
@@ -6362,12 +6362,12 @@
         <v>40</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>62</v>
@@ -6379,12 +6379,12 @@
         <v>40</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>19</v>
@@ -6396,12 +6396,12 @@
         <v>40</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>63</v>
@@ -6413,12 +6413,12 @@
         <v>40</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>64</v>
@@ -6430,12 +6430,12 @@
         <v>40</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>65</v>
@@ -6447,12 +6447,12 @@
         <v>40</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>20</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="37" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>21</v>
@@ -6481,12 +6481,12 @@
         <v>40</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>22</v>
@@ -6498,12 +6498,12 @@
         <v>40</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>31</v>
@@ -6515,12 +6515,12 @@
         <v>40</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>66</v>
@@ -6532,12 +6532,12 @@
         <v>40</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>23</v>
@@ -6549,12 +6549,12 @@
         <v>40</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>68</v>
@@ -6566,12 +6566,12 @@
         <v>40</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>24</v>
@@ -6583,12 +6583,12 @@
         <v>40</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>25</v>
@@ -6600,12 +6600,12 @@
         <v>40</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>26</v>
@@ -6617,12 +6617,12 @@
         <v>40</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>67</v>
@@ -6634,12 +6634,12 @@
         <v>40</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>27</v>
@@ -6651,12 +6651,12 @@
         <v>40</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>28</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="49" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>29</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="50" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>30</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="51" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>50</v>
@@ -6719,12 +6719,12 @@
         <v>40</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>6</v>
@@ -6736,12 +6736,12 @@
         <v>40</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>51</v>
@@ -6753,12 +6753,12 @@
         <v>40</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>0</v>
@@ -6770,12 +6770,12 @@
         <v>40</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>52</v>
@@ -6787,12 +6787,12 @@
         <v>40</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>53</v>
@@ -6804,12 +6804,12 @@
         <v>40</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>54</v>
@@ -6821,12 +6821,12 @@
         <v>40</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>7</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="59" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>8</v>
@@ -6855,12 +6855,12 @@
         <v>40</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>9</v>
@@ -6872,12 +6872,12 @@
         <v>40</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>10</v>
@@ -6889,12 +6889,12 @@
         <v>38</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>55</v>
@@ -6906,12 +6906,12 @@
         <v>40</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>56</v>
@@ -6923,12 +6923,12 @@
         <v>40</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>11</v>
@@ -6940,12 +6940,12 @@
         <v>39</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>34</v>
@@ -6957,12 +6957,12 @@
         <v>40</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -6974,12 +6974,12 @@
         <v>39</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>13</v>
@@ -6991,12 +6991,12 @@
         <v>38</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>12</v>
@@ -7008,12 +7008,12 @@
         <v>39</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>14</v>
@@ -7025,12 +7025,12 @@
         <v>40</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>32</v>
@@ -7042,12 +7042,12 @@
         <v>39</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="13" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>57</v>
@@ -7059,12 +7059,12 @@
         <v>38</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>58</v>
@@ -7076,12 +7076,12 @@
         <v>40</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>15</v>
@@ -7093,12 +7093,12 @@
         <v>40</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>59</v>
@@ -7110,12 +7110,12 @@
         <v>40</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>16</v>
@@ -7127,12 +7127,12 @@
         <v>39</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>17</v>
@@ -7144,12 +7144,12 @@
         <v>39</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>60</v>
@@ -7161,12 +7161,12 @@
         <v>39</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>61</v>
@@ -7178,12 +7178,12 @@
         <v>40</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>18</v>
@@ -7195,12 +7195,12 @@
         <v>40</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>62</v>
@@ -7212,12 +7212,12 @@
         <v>39</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>19</v>
@@ -7229,12 +7229,12 @@
         <v>40</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>63</v>
@@ -7246,12 +7246,12 @@
         <v>39</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>64</v>
@@ -7263,12 +7263,12 @@
         <v>40</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>65</v>
@@ -7280,12 +7280,12 @@
         <v>40</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>20</v>
@@ -7297,12 +7297,12 @@
         <v>39</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>21</v>
@@ -7314,12 +7314,12 @@
         <v>40</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>22</v>
@@ -7331,12 +7331,12 @@
         <v>39</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>31</v>
@@ -7348,12 +7348,12 @@
         <v>39</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>66</v>
@@ -7365,12 +7365,12 @@
         <v>39</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>23</v>
@@ -7382,12 +7382,12 @@
         <v>39</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>68</v>
@@ -7399,12 +7399,12 @@
         <v>40</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>24</v>
@@ -7416,12 +7416,12 @@
         <v>39</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>25</v>
@@ -7433,12 +7433,12 @@
         <v>39</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>26</v>
@@ -7450,12 +7450,12 @@
         <v>40</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>67</v>
@@ -7467,12 +7467,12 @@
         <v>40</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>27</v>
@@ -7484,12 +7484,12 @@
         <v>40</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>28</v>
@@ -7501,12 +7501,12 @@
         <v>38</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>29</v>
@@ -7518,12 +7518,12 @@
         <v>40</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>30</v>
@@ -7535,12 +7535,12 @@
         <v>40</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>50</v>
@@ -7552,12 +7552,12 @@
         <v>40</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>6</v>
@@ -7569,12 +7569,12 @@
         <v>39</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>51</v>
@@ -7586,12 +7586,12 @@
         <v>39</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>0</v>
@@ -7603,12 +7603,12 @@
         <v>40</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>52</v>
@@ -7620,12 +7620,12 @@
         <v>39</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>53</v>
@@ -7637,12 +7637,12 @@
         <v>39</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>54</v>
@@ -7654,12 +7654,12 @@
         <v>40</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>7</v>
@@ -7671,12 +7671,12 @@
         <v>39</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>8</v>
@@ -7688,12 +7688,12 @@
         <v>39</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>9</v>
@@ -7705,12 +7705,12 @@
         <v>40</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>10</v>
@@ -7722,12 +7722,12 @@
         <v>39</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>55</v>
@@ -7739,12 +7739,12 @@
         <v>40</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>56</v>
@@ -7756,12 +7756,12 @@
         <v>39</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>11</v>
@@ -7773,12 +7773,12 @@
         <v>39</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>34</v>
@@ -7790,12 +7790,12 @@
         <v>39</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>33</v>
@@ -7807,12 +7807,12 @@
         <v>40</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>13</v>
@@ -7824,12 +7824,12 @@
         <v>38</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>12</v>
@@ -7841,12 +7841,12 @@
         <v>39</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>14</v>
@@ -7858,12 +7858,12 @@
         <v>39</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>32</v>
@@ -7875,12 +7875,12 @@
         <v>39</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>57</v>
@@ -7892,12 +7892,12 @@
         <v>38</v>
       </c>
       <c r="E120" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>58</v>
@@ -7909,12 +7909,12 @@
         <v>40</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>15</v>
@@ -7926,12 +7926,12 @@
         <v>40</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>59</v>
@@ -7943,12 +7943,12 @@
         <v>40</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>16</v>
@@ -7960,12 +7960,12 @@
         <v>40</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>17</v>
@@ -7977,12 +7977,12 @@
         <v>39</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>60</v>
@@ -7994,12 +7994,12 @@
         <v>39</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>61</v>
@@ -8011,12 +8011,12 @@
         <v>40</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>18</v>
@@ -8028,12 +8028,12 @@
         <v>40</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>62</v>
@@ -8045,12 +8045,12 @@
         <v>39</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>19</v>
@@ -8062,12 +8062,12 @@
         <v>39</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>63</v>
@@ -8079,12 +8079,12 @@
         <v>39</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>64</v>
@@ -8096,12 +8096,12 @@
         <v>40</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>65</v>
@@ -8113,12 +8113,12 @@
         <v>40</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>20</v>
@@ -8130,12 +8130,12 @@
         <v>39</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B135" s="14" t="s">
         <v>21</v>
@@ -8147,12 +8147,12 @@
         <v>39</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B136" s="14" t="s">
         <v>22</v>
@@ -8164,12 +8164,12 @@
         <v>40</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B137" s="14" t="s">
         <v>31</v>
@@ -8181,12 +8181,12 @@
         <v>39</v>
       </c>
       <c r="E137" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B138" s="14" t="s">
         <v>66</v>
@@ -8198,12 +8198,12 @@
         <v>40</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B139" s="14" t="s">
         <v>23</v>
@@ -8215,12 +8215,12 @@
         <v>39</v>
       </c>
       <c r="E139" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B140" s="14" t="s">
         <v>68</v>
@@ -8232,12 +8232,12 @@
         <v>40</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B141" s="14" t="s">
         <v>24</v>
@@ -8249,12 +8249,12 @@
         <v>39</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B142" s="14" t="s">
         <v>25</v>
@@ -8266,12 +8266,12 @@
         <v>39</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B143" s="14" t="s">
         <v>26</v>
@@ -8283,12 +8283,12 @@
         <v>40</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B144" s="14" t="s">
         <v>67</v>
@@ -8300,12 +8300,12 @@
         <v>40</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B145" s="14" t="s">
         <v>27</v>
@@ -8317,12 +8317,12 @@
         <v>40</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>28</v>
@@ -8334,12 +8334,12 @@
         <v>38</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B147" s="14" t="s">
         <v>29</v>
@@ -8351,12 +8351,12 @@
         <v>39</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B148" s="14" t="s">
         <v>30</v>
@@ -8368,12 +8368,12 @@
         <v>39</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>50</v>
@@ -8385,12 +8385,12 @@
         <v>40</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B150" s="14" t="s">
         <v>6</v>
@@ -8402,12 +8402,12 @@
         <v>40</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B151" s="14" t="s">
         <v>51</v>
@@ -8419,12 +8419,12 @@
         <v>40</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B152" s="14" t="s">
         <v>0</v>
@@ -8436,12 +8436,12 @@
         <v>40</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B153" s="14" t="s">
         <v>52</v>
@@ -8453,12 +8453,12 @@
         <v>40</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B154" s="14" t="s">
         <v>53</v>
@@ -8470,12 +8470,12 @@
         <v>40</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B155" s="14" t="s">
         <v>54</v>
@@ -8487,12 +8487,12 @@
         <v>40</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B156" s="14" t="s">
         <v>7</v>
@@ -8504,12 +8504,12 @@
         <v>40</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>8</v>
@@ -8521,12 +8521,12 @@
         <v>40</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B158" s="14" t="s">
         <v>9</v>
@@ -8538,12 +8538,12 @@
         <v>40</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>10</v>
@@ -8555,12 +8555,12 @@
         <v>40</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>55</v>
@@ -8572,12 +8572,12 @@
         <v>40</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B161" s="14" t="s">
         <v>56</v>
@@ -8589,12 +8589,12 @@
         <v>40</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B162" s="14" t="s">
         <v>11</v>
@@ -8606,12 +8606,12 @@
         <v>40</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B163" s="14" t="s">
         <v>34</v>
@@ -8623,12 +8623,12 @@
         <v>39</v>
       </c>
       <c r="E163" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B164" s="14" t="s">
         <v>33</v>
@@ -8640,12 +8640,12 @@
         <v>40</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B165" s="14" t="s">
         <v>13</v>
@@ -8657,12 +8657,12 @@
         <v>39</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B166" s="14" t="s">
         <v>12</v>
@@ -8674,12 +8674,12 @@
         <v>40</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>14</v>
@@ -8691,12 +8691,12 @@
         <v>40</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="13" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B168" s="14" t="s">
         <v>32</v>
@@ -8708,12 +8708,12 @@
         <v>40</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>57</v>
@@ -8725,12 +8725,12 @@
         <v>38</v>
       </c>
       <c r="E169" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>58</v>
@@ -8742,12 +8742,12 @@
         <v>40</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>15</v>
@@ -8759,12 +8759,12 @@
         <v>40</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>59</v>
@@ -8776,12 +8776,12 @@
         <v>40</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B173" s="14" t="s">
         <v>16</v>
@@ -8793,12 +8793,12 @@
         <v>40</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>17</v>
@@ -8810,12 +8810,12 @@
         <v>40</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>60</v>
@@ -8827,12 +8827,12 @@
         <v>40</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>61</v>
@@ -8844,12 +8844,12 @@
         <v>40</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>18</v>
@@ -8861,12 +8861,12 @@
         <v>40</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>62</v>
@@ -8878,12 +8878,12 @@
         <v>40</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="179" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B179" s="14" t="s">
         <v>19</v>
@@ -8895,12 +8895,12 @@
         <v>40</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="180" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B180" s="14" t="s">
         <v>63</v>
@@ -8912,12 +8912,12 @@
         <v>40</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>64</v>
@@ -8929,12 +8929,12 @@
         <v>40</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>65</v>
@@ -8946,12 +8946,12 @@
         <v>40</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="183" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>20</v>
@@ -8963,12 +8963,12 @@
         <v>39</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="184" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>21</v>
@@ -8980,12 +8980,12 @@
         <v>40</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="185" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B185" s="14" t="s">
         <v>22</v>
@@ -8997,12 +8997,12 @@
         <v>40</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B186" s="14" t="s">
         <v>31</v>
@@ -9014,12 +9014,12 @@
         <v>40</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B187" s="14" t="s">
         <v>66</v>
@@ -9031,12 +9031,12 @@
         <v>40</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B188" s="14" t="s">
         <v>23</v>
@@ -9048,12 +9048,12 @@
         <v>40</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="189" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>68</v>
@@ -9065,12 +9065,12 @@
         <v>40</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>24</v>
@@ -9082,12 +9082,12 @@
         <v>40</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>25</v>
@@ -9099,12 +9099,12 @@
         <v>40</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="192" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>26</v>
@@ -9116,12 +9116,12 @@
         <v>40</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>67</v>
@@ -9133,12 +9133,12 @@
         <v>40</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="194" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>27</v>
@@ -9150,12 +9150,12 @@
         <v>40</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="195" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>28</v>
@@ -9167,12 +9167,12 @@
         <v>39</v>
       </c>
       <c r="E195" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="196" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B196" s="14" t="s">
         <v>29</v>
@@ -9184,12 +9184,12 @@
         <v>40</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>30</v>
@@ -9201,12 +9201,12 @@
         <v>40</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B198" s="14" t="s">
         <v>50</v>
@@ -9218,12 +9218,12 @@
         <v>40</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B199" s="14" t="s">
         <v>6</v>
@@ -9235,12 +9235,12 @@
         <v>40</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="200" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B200" s="14" t="s">
         <v>51</v>
@@ -9252,12 +9252,12 @@
         <v>40</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="201" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B201" s="14" t="s">
         <v>0</v>
@@ -9269,12 +9269,12 @@
         <v>40</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B202" s="14" t="s">
         <v>52</v>
@@ -9286,12 +9286,12 @@
         <v>40</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="203" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B203" s="14" t="s">
         <v>53</v>
@@ -9303,12 +9303,12 @@
         <v>40</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="204" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B204" s="14" t="s">
         <v>54</v>
@@ -9320,12 +9320,12 @@
         <v>40</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="205" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B205" s="14" t="s">
         <v>7</v>
@@ -9337,12 +9337,12 @@
         <v>40</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="206" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B206" s="14" t="s">
         <v>8</v>
@@ -9354,12 +9354,12 @@
         <v>40</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="207" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B207" s="14" t="s">
         <v>9</v>
@@ -9371,12 +9371,12 @@
         <v>40</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="208" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B208" s="14" t="s">
         <v>10</v>
@@ -9388,12 +9388,12 @@
         <v>38</v>
       </c>
       <c r="E208" s="24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B209" s="14" t="s">
         <v>55</v>
@@ -9405,12 +9405,12 @@
         <v>40</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="210" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B210" s="14" t="s">
         <v>56</v>
@@ -9422,12 +9422,12 @@
         <v>40</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="211" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B211" s="14" t="s">
         <v>11</v>
@@ -9439,12 +9439,12 @@
         <v>40</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="212" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B212" s="14" t="s">
         <v>34</v>
@@ -9456,12 +9456,12 @@
         <v>40</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="213" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B213" s="14" t="s">
         <v>33</v>
@@ -9473,12 +9473,12 @@
         <v>40</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="214" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B214" s="14" t="s">
         <v>13</v>
@@ -9490,12 +9490,12 @@
         <v>38</v>
       </c>
       <c r="E214" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B215" s="14" t="s">
         <v>12</v>
@@ -9507,12 +9507,12 @@
         <v>40</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="216" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B216" s="14" t="s">
         <v>14</v>
@@ -9524,12 +9524,12 @@
         <v>40</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="217" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B217" s="14" t="s">
         <v>32</v>
@@ -9541,12 +9541,12 @@
         <v>40</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="218" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B218" s="14" t="s">
         <v>57</v>
@@ -9558,12 +9558,12 @@
         <v>38</v>
       </c>
       <c r="E218" s="23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="219" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B219" s="14" t="s">
         <v>58</v>
@@ -9575,12 +9575,12 @@
         <v>40</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="220" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B220" s="14" t="s">
         <v>15</v>
@@ -9592,12 +9592,12 @@
         <v>40</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="221" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B221" s="14" t="s">
         <v>59</v>
@@ -9609,12 +9609,12 @@
         <v>40</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="222" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B222" s="14" t="s">
         <v>16</v>
@@ -9626,12 +9626,12 @@
         <v>40</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="223" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B223" s="14" t="s">
         <v>17</v>
@@ -9643,12 +9643,12 @@
         <v>40</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="224" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B224" s="14" t="s">
         <v>60</v>
@@ -9660,12 +9660,12 @@
         <v>40</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="225" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B225" s="14" t="s">
         <v>61</v>
@@ -9677,12 +9677,12 @@
         <v>40</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="226" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B226" s="14" t="s">
         <v>18</v>
@@ -9694,12 +9694,12 @@
         <v>40</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="227" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B227" s="14" t="s">
         <v>62</v>
@@ -9711,12 +9711,12 @@
         <v>40</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="228" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B228" s="14" t="s">
         <v>19</v>
@@ -9728,12 +9728,12 @@
         <v>40</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B229" s="14" t="s">
         <v>63</v>
@@ -9745,12 +9745,12 @@
         <v>40</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="230" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B230" s="14" t="s">
         <v>64</v>
@@ -9762,12 +9762,12 @@
         <v>40</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="231" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B231" s="14" t="s">
         <v>65</v>
@@ -9779,12 +9779,12 @@
         <v>40</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="232" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B232" s="14" t="s">
         <v>20</v>
@@ -9796,12 +9796,12 @@
         <v>39</v>
       </c>
       <c r="E232" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="233" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B233" s="14" t="s">
         <v>21</v>
@@ -9813,12 +9813,12 @@
         <v>40</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="234" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B234" s="14" t="s">
         <v>22</v>
@@ -9830,12 +9830,12 @@
         <v>40</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="235" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B235" s="14" t="s">
         <v>31</v>
@@ -9847,12 +9847,12 @@
         <v>38</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="236" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B236" s="14" t="s">
         <v>66</v>
@@ -9864,12 +9864,12 @@
         <v>40</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="237" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B237" s="14" t="s">
         <v>23</v>
@@ -9881,12 +9881,12 @@
         <v>40</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B238" s="14" t="s">
         <v>68</v>
@@ -9898,12 +9898,12 @@
         <v>40</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B239" s="14" t="s">
         <v>24</v>
@@ -9915,12 +9915,12 @@
         <v>40</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B240" s="14" t="s">
         <v>25</v>
@@ -9932,12 +9932,12 @@
         <v>40</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="241" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B241" s="14" t="s">
         <v>26</v>
@@ -9949,12 +9949,12 @@
         <v>40</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="242" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B242" s="14" t="s">
         <v>67</v>
@@ -9966,12 +9966,12 @@
         <v>40</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="243" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B243" s="14" t="s">
         <v>27</v>
@@ -9983,12 +9983,12 @@
         <v>40</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="244" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B244" s="14" t="s">
         <v>28</v>
@@ -10000,12 +10000,12 @@
         <v>38</v>
       </c>
       <c r="E244" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B245" s="14" t="s">
         <v>29</v>
@@ -10017,12 +10017,12 @@
         <v>40</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="246" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B246" s="14" t="s">
         <v>30</v>
@@ -10034,12 +10034,12 @@
         <v>40</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="247" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B247" s="14" t="s">
         <v>50</v>
@@ -10051,12 +10051,12 @@
         <v>40</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="248" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B248" s="14" t="s">
         <v>6</v>
@@ -10068,12 +10068,12 @@
         <v>40</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="249" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B249" s="14" t="s">
         <v>51</v>
@@ -10085,12 +10085,12 @@
         <v>40</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="250" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B250" s="14" t="s">
         <v>0</v>
@@ -10102,12 +10102,12 @@
         <v>40</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B251" s="14" t="s">
         <v>52</v>
@@ -10119,12 +10119,12 @@
         <v>40</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="252" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B252" s="14" t="s">
         <v>53</v>
@@ -10136,12 +10136,12 @@
         <v>40</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="253" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B253" s="14" t="s">
         <v>54</v>
@@ -10153,12 +10153,12 @@
         <v>40</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="254" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B254" s="14" t="s">
         <v>7</v>
@@ -10170,12 +10170,12 @@
         <v>40</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="255" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B255" s="14" t="s">
         <v>8</v>
@@ -10187,12 +10187,12 @@
         <v>40</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="256" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B256" s="14" t="s">
         <v>9</v>
@@ -10204,12 +10204,12 @@
         <v>40</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="257" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B257" s="14" t="s">
         <v>10</v>
@@ -10221,12 +10221,12 @@
         <v>40</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="258" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B258" s="14" t="s">
         <v>55</v>
@@ -10238,12 +10238,12 @@
         <v>40</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="259" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B259" s="14" t="s">
         <v>56</v>
@@ -10255,12 +10255,12 @@
         <v>40</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="260" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B260" s="14" t="s">
         <v>11</v>
@@ -10272,12 +10272,12 @@
         <v>40</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="261" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B261" s="14" t="s">
         <v>34</v>
@@ -10289,12 +10289,12 @@
         <v>40</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="262" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B262" s="14" t="s">
         <v>33</v>
@@ -10306,12 +10306,12 @@
         <v>40</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="263" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B263" s="14" t="s">
         <v>13</v>
@@ -10323,12 +10323,12 @@
         <v>38</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="264" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B264" s="14" t="s">
         <v>12</v>
@@ -10340,12 +10340,12 @@
         <v>40</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="265" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B265" s="14" t="s">
         <v>14</v>
@@ -10357,12 +10357,12 @@
         <v>40</v>
       </c>
       <c r="E265" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="266" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B266" s="14" t="s">
         <v>32</v>
@@ -10374,12 +10374,12 @@
         <v>40</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="267" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B267" s="14" t="s">
         <v>57</v>
@@ -10391,12 +10391,12 @@
         <v>40</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="268" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B268" s="14" t="s">
         <v>58</v>
@@ -10408,12 +10408,12 @@
         <v>40</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="269" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B269" s="14" t="s">
         <v>15</v>
@@ -10425,12 +10425,12 @@
         <v>40</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="270" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B270" s="14" t="s">
         <v>59</v>
@@ -10442,12 +10442,12 @@
         <v>40</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="271" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B271" s="14" t="s">
         <v>16</v>
@@ -10459,12 +10459,12 @@
         <v>40</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="272" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B272" s="14" t="s">
         <v>17</v>
@@ -10476,12 +10476,12 @@
         <v>40</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="273" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B273" s="14" t="s">
         <v>60</v>
@@ -10493,12 +10493,12 @@
         <v>40</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="274" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B274" s="14" t="s">
         <v>61</v>
@@ -10510,12 +10510,12 @@
         <v>40</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="275" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B275" s="14" t="s">
         <v>18</v>
@@ -10527,12 +10527,12 @@
         <v>40</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="276" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B276" s="14" t="s">
         <v>62</v>
@@ -10544,12 +10544,12 @@
         <v>40</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="277" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B277" s="14" t="s">
         <v>19</v>
@@ -10561,12 +10561,12 @@
         <v>40</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="278" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B278" s="14" t="s">
         <v>63</v>
@@ -10578,12 +10578,12 @@
         <v>40</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="279" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B279" s="14" t="s">
         <v>64</v>
@@ -10595,12 +10595,12 @@
         <v>40</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="280" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B280" s="14" t="s">
         <v>65</v>
@@ -10612,12 +10612,12 @@
         <v>40</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="281" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B281" s="14" t="s">
         <v>20</v>
@@ -10629,12 +10629,12 @@
         <v>39</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="282" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B282" s="14" t="s">
         <v>21</v>
@@ -10646,12 +10646,12 @@
         <v>40</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="283" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B283" s="14" t="s">
         <v>22</v>
@@ -10663,12 +10663,12 @@
         <v>40</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="284" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B284" s="14" t="s">
         <v>31</v>
@@ -10680,12 +10680,12 @@
         <v>40</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="285" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B285" s="14" t="s">
         <v>66</v>
@@ -10697,12 +10697,12 @@
         <v>40</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="286" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B286" s="14" t="s">
         <v>23</v>
@@ -10714,12 +10714,12 @@
         <v>40</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="287" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B287" s="14" t="s">
         <v>68</v>
@@ -10731,12 +10731,12 @@
         <v>40</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="288" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B288" s="14" t="s">
         <v>24</v>
@@ -10748,12 +10748,12 @@
         <v>39</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B289" s="14" t="s">
         <v>25</v>
@@ -10765,12 +10765,12 @@
         <v>40</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="290" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B290" s="14" t="s">
         <v>26</v>
@@ -10782,12 +10782,12 @@
         <v>40</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B291" s="14" t="s">
         <v>67</v>
@@ -10799,12 +10799,12 @@
         <v>40</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="292" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B292" s="14" t="s">
         <v>27</v>
@@ -10816,12 +10816,12 @@
         <v>40</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B293" s="14" t="s">
         <v>28</v>
@@ -10833,12 +10833,12 @@
         <v>40</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B294" s="14" t="s">
         <v>29</v>
@@ -10850,12 +10850,12 @@
         <v>40</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B295" s="14" t="s">
         <v>30</v>
@@ -10867,7 +10867,7 @@
         <v>40</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -13654,10 +13654,10 @@
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -13668,10 +13668,10 @@
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -13682,10 +13682,10 @@
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -13696,10 +13696,10 @@
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -13710,18 +13710,18 @@
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
